--- a/SpellList.xlsx
+++ b/SpellList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99128eca8b62fb4e/Desktop/Dev Stuff/Java/purgers-might-app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaulO\OneDrive\Desktop\Dev Stuff\Java\purgers-might-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{93B151C8-3F7C-4B50-9732-52B536A67EB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{AD3F29C9-2734-4996-B874-BD0C8F803F49}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{93B151C8-3F7C-4B50-9732-52B536A67EB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2DE64BF2-E515-4138-B3FD-F25E75F79B46}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EEE33E59-B055-426F-8DC5-5A1340FAF013}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>Fire Starter</t>
   </si>
@@ -90,9 +90,6 @@
     <t>DEBUFF_DAMAGE</t>
   </si>
   <si>
-    <t>DEBUFF_STEAL</t>
-  </si>
-  <si>
     <t>Twisted Thorns</t>
   </si>
   <si>
@@ -184,6 +181,30 @@
   </si>
   <si>
     <t>spellAmount</t>
+  </si>
+  <si>
+    <t>DEBUFF_STEAL_HEALTH</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>DEBUFF</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>Full health</t>
+  </si>
+  <si>
+    <t>Mind Leech</t>
+  </si>
+  <si>
+    <t>DEBUFF_STEAL_MANNA</t>
+  </si>
+  <si>
+    <t>Steals manna from the enemy every turn for 3 turns</t>
   </si>
 </sst>
 </file>
@@ -549,451 +570,533 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9107631-B200-4D75-8085-E7C851E2D653}">
-  <dimension ref="B2:I31"/>
+  <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="61.109375" customWidth="1"/>
+    <col min="2" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="61.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="4" spans="2:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F14" s="1">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="1">
-        <v>50</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F26" s="1">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
         <v>20</v>
       </c>
-      <c r="F16" s="1">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="G30" s="1">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1">
-        <v>4</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H30" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1">
-        <v>6</v>
-      </c>
-      <c r="G30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>20</v>
-      </c>
-      <c r="F31" s="1">
-        <v>8</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
